--- a/FinaLytics_Template_TR.xlsx
+++ b/FinaLytics_Template_TR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinaLytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9001A0-BA7C-473C-A418-27AA0CB86551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741E75A9-2F04-4A7C-842E-DCB061CDE794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-45120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,15 +496,15 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>

--- a/FinaLytics_Template_TR.xlsx
+++ b/FinaLytics_Template_TR.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinaLytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741E75A9-2F04-4A7C-842E-DCB061CDE794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652C891D-1031-493B-A3BD-F4F2801F06EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37740" yWindow="3360" windowWidth="12150" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -496,7 +496,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
